--- a/public/MahasiswaData/datamahasiswa.xlsx
+++ b/public/MahasiswaData/datamahasiswa.xlsx
@@ -1,111 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fikri\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795211B5-6A2B-49ED-BEEB-7FCC8C4065F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Garut</t>
+    <t>Fikri Haekal</t>
   </si>
   <si>
-    <t>Juara 2 Silat, Juara 4 Bahasa Inggris, Juara 3 renang</t>
+    <t>Akuntansi D3</t>
   </si>
   <si>
-    <t>2022-10-01T16:09:31.000000Z</t>
+    <t>Hima</t>
   </si>
   <si>
-    <t>2022-10-01T11:14:26.000000Z</t>
-  </si>
-  <si>
-    <t>nagrog</t>
-  </si>
-  <si>
-    <t>Juara 1 olimpiade, juara 3 Futsal</t>
-  </si>
-  <si>
-    <t>2022-10-01T11:27:46.000000Z</t>
-  </si>
-  <si>
-    <t>bungbulang</t>
-  </si>
-  <si>
-    <t>2022-10-01T11:28:30.000000Z</t>
-  </si>
-  <si>
-    <t>Karpaw</t>
-  </si>
-  <si>
-    <t>Juara 3 olimpiade, juara 5 Lari</t>
-  </si>
-  <si>
-    <t>2022-10-01T11:28:57.000000Z</t>
-  </si>
-  <si>
-    <t>2022-10-01T11:54:48.000000Z</t>
-  </si>
-  <si>
-    <t>Juara 3 olimpiade, juara 2 Basket</t>
-  </si>
-  <si>
-    <t>2022-10-01T11:29:27.000000Z</t>
-  </si>
-  <si>
-    <t>ckj</t>
-  </si>
-  <si>
-    <t>2022-10-01T12:08:34.000000Z</t>
-  </si>
-  <si>
-    <t>Wulan Dwi L</t>
-  </si>
-  <si>
-    <t>Benze</t>
-  </si>
-  <si>
-    <t>Alex Sgger</t>
-  </si>
-  <si>
-    <t>Haus</t>
-  </si>
-  <si>
-    <t>cupu</t>
-  </si>
-  <si>
-    <t>hehe stain</t>
+    <t>2023-01-07T04:57:09.000000Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -120,33 +54,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -436,42 +358,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1">
-        <v>1806045</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1806037</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1">
-        <v>3.9</v>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>3000000</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+        <v>3.7</v>
+      </c>
+      <c r="F1">
+        <v>2000000</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -480,189 +396,34 @@
         <v>2</v>
       </c>
       <c r="I1">
-        <v>900000</v>
-      </c>
-      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>500000</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1806088</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E2">
-        <v>500000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2">
+      <c r="M1" t="s">
         <v>3</v>
-      </c>
-      <c r="I2">
-        <v>500000</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1806082</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>3.22</v>
-      </c>
-      <c r="E3">
-        <v>20000000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>100000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1806099</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3.7</v>
-      </c>
-      <c r="E4">
-        <v>100000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>100000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1806032</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>3.72</v>
-      </c>
-      <c r="E5">
-        <v>8000000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2000000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1806080</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2.7</v>
-      </c>
-      <c r="E6">
-        <v>2000000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>4000000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>